--- a/Demo/exploreAge.xlsx
+++ b/Demo/exploreAge.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160E8D15-B0C0-4890-8085-109E36F43D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB1A796-8675-48AA-8A8A-95BC24E4F370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="870" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>
-    <sheet name="data2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="data2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="21">
   <si>
     <t>var1</t>
   </si>
@@ -92,6 +93,9 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>ageSpecifc rate</t>
   </si>
 </sst>
 </file>
@@ -478,18 +482,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +507,11 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -516,8 +524,12 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>B2/C2</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -530,8 +542,12 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="0">B3/C3</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -544,8 +560,12 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -558,8 +578,12 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444444E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -572,8 +596,12 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -586,8 +614,12 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.5714285714285715E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -600,8 +632,12 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -614,13 +650,17 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C10">
         <v>1000</v>
@@ -628,50 +668,66 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11">
+        <v>500</v>
+      </c>
+      <c r="C11">
         <v>1000</v>
-      </c>
-      <c r="C11">
-        <v>2000</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -684,117 +740,1088 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444444E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="C17">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.5714285714285715E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="C18">
-        <v>3500</v>
+        <v>17500</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="C19">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="C20">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C21">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E9CCFB22-CA78-47AF-95EF-50F7CE47CC99}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C21">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7700446C-C23F-49FB-9939-72D61E2EED61}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{457F62B6-1243-4FF6-A0B2-5B89F8CD1540}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E21">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2D6D65CA-495C-481F-BC26-26D9851B7F26}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B25609FD-F0B7-479A-A329-88854F46D2E0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B21">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0A8B2420-299C-45DA-A8B1-9DED8A45E260}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E9CCFB22-CA78-47AF-95EF-50F7CE47CC99}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7700446C-C23F-49FB-9939-72D61E2EED61}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C12:C21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{457F62B6-1243-4FF6-A0B2-5B89F8CD1540}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2D6D65CA-495C-481F-BC26-26D9851B7F26}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E12:E21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B25609FD-F0B7-479A-A329-88854F46D2E0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0A8B2420-299C-45DA-A8B1-9DED8A45E260}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B12:B21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D575E7-0F49-43E0-BE1A-C58B26A1D10D}">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>B2/C2</f>
+        <v>2E-3</v>
+      </c>
+      <c r="K2">
+        <v>5000</v>
+      </c>
+      <c r="M2">
+        <f>K2*E2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="0">B3/C3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K3">
+        <v>5000</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M21" si="1">K3*E3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="K4">
+        <v>5000</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>4500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444444E-3</v>
+      </c>
+      <c r="K5">
+        <v>4500</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>4500</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K6">
+        <v>4500</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>30.000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>3500</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.5714285714285715E-2</v>
+      </c>
+      <c r="K7">
+        <v>3500</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>3500</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="K8">
+        <v>3500</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>300</v>
+      </c>
+      <c r="C9">
+        <v>2500</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="K9">
+        <v>2500</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="K10">
+        <v>1000</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>500</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <f>SUM(B2:B11)</f>
+        <v>1323</v>
+      </c>
+      <c r="H11">
+        <f>SUM(C2:C11)</f>
+        <v>35500</v>
+      </c>
+      <c r="I11">
+        <f>G11/H11</f>
+        <v>3.7267605633802818E-2</v>
+      </c>
+      <c r="K11">
+        <v>1000</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="O11">
+        <f>SUM(M2:M11)</f>
+        <v>1323</v>
+      </c>
+      <c r="P11">
+        <f>SUM(K2:K11)</f>
+        <v>35500</v>
+      </c>
+      <c r="Q11">
+        <f>O11/P11</f>
+        <v>3.7267605633802818E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>500</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="K12">
+        <v>5000</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="K13">
+        <v>5000</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>5000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="K14">
+        <v>5000</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>9000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444444E-3</v>
+      </c>
+      <c r="K15">
+        <v>4500</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>9000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K16">
+        <v>4500</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>30.000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>220</v>
+      </c>
+      <c r="C17">
+        <v>14000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.5714285714285715E-2</v>
+      </c>
+      <c r="K17">
+        <v>3500</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>17500</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="K18">
+        <v>3500</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>3000</v>
+      </c>
+      <c r="C19">
+        <v>25000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="K19">
+        <v>2500</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>4000</v>
+      </c>
+      <c r="C20">
+        <v>20000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="K20">
+        <v>1000</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>5000</v>
+      </c>
+      <c r="C21">
+        <v>10000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <f>SUM(B12:B21)</f>
+        <v>13325</v>
+      </c>
+      <c r="H21">
+        <f>SUM(C12:C21)</f>
+        <v>111000</v>
+      </c>
+      <c r="I21">
+        <f>G21/H21</f>
+        <v>0.12004504504504504</v>
+      </c>
+      <c r="K21">
+        <v>1000</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="O21">
+        <f>SUM(M12:M21)</f>
+        <v>1323</v>
+      </c>
+      <c r="P21">
+        <f>SUM(K12:K21)</f>
+        <v>35500</v>
+      </c>
+      <c r="Q21">
+        <f>O21/P21</f>
+        <v>3.7267605633802818E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{901943D8-D881-4483-93F1-7FAFB000995A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C21">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0B7F4794-BC81-45C4-B7B3-C59EFC8FAF80}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4B4031EB-5683-4FD0-BBC4-E6C9A0AE87E3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E21">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E83F2407-A938-4A75-8E67-2F20FA5670A0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{325EF90D-97C8-4767-8EC8-EB949510CFF7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B21">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F29FB956-C928-41F1-BE6F-472282AADA13}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:K21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0A4DF302-22DE-46CB-904F-2BE2CC1D2221}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{901943D8-D881-4483-93F1-7FAFB000995A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0B7F4794-BC81-45C4-B7B3-C59EFC8FAF80}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C12:C21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4B4031EB-5683-4FD0-BBC4-E6C9A0AE87E3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E83F2407-A938-4A75-8E67-2F20FA5670A0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E12:E21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{325EF90D-97C8-4767-8EC8-EB949510CFF7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F29FB956-C928-41F1-BE6F-472282AADA13}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B12:B21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0A4DF302-22DE-46CB-904F-2BE2CC1D2221}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K12:K21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9107F74-3511-425E-A2CC-7E4650A63B75}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
